--- a/tests/fake2excel.xlsx
+++ b/tests/fake2excel.xlsx
@@ -19,7 +19,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>郭秀珍</t>
+    <t>黄莉</t>
   </si>
 </sst>
 </file>
